--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:15:59+00:00</t>
+    <t>2022-11-29T13:15:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:15:00+00:00</t>
+    <t>2022-11-29T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -3430,7 +3433,7 @@
         <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>80</v>
@@ -3445,13 +3448,13 @@
         <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>80</v>
@@ -3484,19 +3487,19 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -3504,7 +3507,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3527,19 +3530,19 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>80</v>
@@ -3567,10 +3570,10 @@
         <v>113</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>80</v>
@@ -3588,7 +3591,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -3612,10 +3615,10 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3623,11 +3626,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3646,19 +3649,19 @@
         <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>80</v>
@@ -3668,7 +3671,7 @@
         <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>80</v>
@@ -3683,13 +3686,13 @@
         <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>80</v>
@@ -3707,7 +3710,7 @@
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>89</v>
@@ -3722,27 +3725,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3765,19 +3768,19 @@
         <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -3826,7 +3829,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -3841,19 +3844,19 @@
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -3861,7 +3864,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3884,16 +3887,16 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3943,7 +3946,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3964,13 +3967,13 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3978,11 +3981,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4001,19 +4004,19 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4062,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4077,19 +4080,19 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4097,11 +4100,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4120,19 +4123,19 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>80</v>
@@ -4169,17 +4172,17 @@
         <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4194,19 +4197,19 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4214,13 +4217,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4239,19 +4242,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>80</v>
@@ -4300,7 +4303,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4315,19 +4318,19 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4358,16 +4361,16 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4417,7 +4420,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4438,13 +4441,13 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4475,17 +4478,17 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>80</v>
@@ -4534,7 +4537,7 @@
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4549,19 +4552,19 @@
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -4569,7 +4572,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4592,19 +4595,19 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -4653,7 +4656,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4662,7 +4665,7 @@
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
@@ -4671,24 +4674,24 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4711,19 +4714,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -4748,13 +4751,13 @@
         <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>80</v>
@@ -4772,7 +4775,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4781,7 +4784,7 @@
         <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>101</v>
@@ -4796,7 +4799,7 @@
         <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -4807,11 +4810,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4830,19 +4833,19 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>80</v>
@@ -4867,13 +4870,13 @@
         <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>80</v>
@@ -4891,7 +4894,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4909,24 +4912,24 @@
         <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4949,19 +4952,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>80</v>
@@ -5010,7 +5013,7 @@
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5031,10 +5034,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5068,13 +5071,13 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5125,7 +5128,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5149,7 +5152,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5189,7 +5192,7 @@
         <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>138</v>
@@ -5230,19 +5233,19 @@
         <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5266,7 +5269,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5277,7 +5280,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5300,16 +5303,16 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5347,17 +5350,17 @@
         <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5381,7 +5384,7 @@
         <v>132</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5392,10 +5395,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>80</v>
@@ -5417,16 +5420,16 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5476,7 +5479,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5500,7 +5503,7 @@
         <v>132</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5511,7 +5514,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5534,13 +5537,13 @@
         <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5591,7 +5594,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5615,7 +5618,7 @@
         <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5629,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5649,13 +5652,13 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5706,7 +5709,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5730,7 +5733,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5741,7 +5744,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5764,16 +5767,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5799,13 +5802,13 @@
         <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
@@ -5823,7 +5826,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5841,24 +5844,24 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5881,19 +5884,19 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5918,13 +5921,13 @@
         <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
@@ -5942,7 +5945,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5963,10 +5966,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6000,16 +6003,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6059,7 +6062,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6077,24 +6080,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6117,16 +6120,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6176,7 +6179,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6194,24 +6197,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6234,19 +6237,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6295,7 +6298,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6307,7 +6310,7 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>80</v>
@@ -6316,10 +6319,10 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6330,7 +6333,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6353,13 +6356,13 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6410,7 +6413,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6434,7 +6437,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6445,7 +6448,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6474,7 +6477,7 @@
         <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>138</v>
@@ -6527,7 +6530,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6551,7 +6554,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6562,11 +6565,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6588,10 +6591,10 @@
         <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>138</v>
@@ -6646,7 +6649,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6704,13 +6707,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6761,7 +6764,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6770,7 +6773,7 @@
         <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6782,10 +6785,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6796,7 +6799,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6819,13 +6822,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6876,7 +6879,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6885,7 +6888,7 @@
         <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6897,10 +6900,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6911,7 +6914,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6934,19 +6937,19 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6974,10 +6977,10 @@
         <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
@@ -6995,7 +6998,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7013,13 +7016,13 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7030,7 +7033,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7053,19 +7056,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7090,13 +7093,13 @@
         <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
@@ -7114,7 +7117,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7132,13 +7135,13 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7172,17 +7175,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7231,7 +7234,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7255,7 +7258,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7266,7 +7269,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7289,13 +7292,13 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7346,7 +7349,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7367,10 +7370,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7381,7 +7384,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7404,16 +7407,16 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7463,7 +7466,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7484,10 +7487,10 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7498,7 +7501,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7521,16 +7524,16 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7580,7 +7583,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7601,10 +7604,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7615,7 +7618,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7638,19 +7641,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7699,7 +7702,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7720,10 +7723,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7757,13 +7760,13 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7814,7 +7817,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7838,7 +7841,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7849,7 +7852,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7878,7 +7881,7 @@
         <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>138</v>
@@ -7931,7 +7934,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7955,7 +7958,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -7966,11 +7969,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7992,10 +7995,10 @@
         <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>138</v>
@@ -8050,7 +8053,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8108,19 +8111,19 @@
         <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>80</v>
@@ -8145,13 +8148,13 @@
         <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>80</v>
@@ -8169,7 +8172,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>89</v>
@@ -8187,16 +8190,16 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8204,7 +8207,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8227,19 +8230,19 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>80</v>
@@ -8288,7 +8291,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8306,24 +8309,24 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8346,19 +8349,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8383,13 +8386,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8407,7 +8410,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8416,7 +8419,7 @@
         <v>89</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>101</v>
@@ -8431,7 +8434,7 @@
         <v>132</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8442,11 +8445,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8465,19 +8468,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8502,13 +8505,13 @@
         <v>80</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>80</v>
@@ -8526,7 +8529,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8544,24 +8547,24 @@
         <v>80</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8587,16 +8590,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8645,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8666,10 +8669,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:37:45+00:00</t>
+    <t>2022-11-29T14:53:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:53:02+00:00</t>
+    <t>2022-11-29T15:19:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:19:30+00:00</t>
+    <t>2022-11-29T15:46:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:46:25+00:00</t>
+    <t>2022-11-29T16:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:13:33+00:00</t>
+    <t>2022-11-29T16:38:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:38:35+00:00</t>
+    <t>2022-11-29T17:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:19:52+00:00</t>
+    <t>2022-11-30T05:48:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T05:48:35+00:00</t>
+    <t>2022-11-30T06:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:10:32+00:00</t>
+    <t>2022-11-30T06:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:30:25+00:00</t>
+    <t>2022-11-30T07:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:44:48+00:00</t>
+    <t>2022-11-30T09:05:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:05:55+00:00</t>
+    <t>2022-11-30T11:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:29:51+00:00</t>
+    <t>2022-11-30T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:53:49+00:00</t>
+    <t>2022-11-30T12:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T12:56:54+00:00</t>
+    <t>2022-11-30T13:39:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:39:19+00:00</t>
+    <t>2022-11-30T14:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:25:57+00:00</t>
+    <t>2022-12-01T06:22:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:22:50+00:00</t>
+    <t>2022-12-01T06:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:30:49+00:00</t>
+    <t>2022-12-01T06:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:43:04+00:00</t>
+    <t>2022-12-01T06:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T06:55:13+00:00</t>
+    <t>2022-12-01T07:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:05:23+00:00</t>
+    <t>2022-12-01T07:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:37:38+00:00</t>
+    <t>2022-12-01T08:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:15:41+00:00</t>
+    <t>2022-12-01T08:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:22:41+00:00</t>
+    <t>2022-12-01T08:50:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:50:08+00:00</t>
+    <t>2022-12-01T09:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:02:26+00:00</t>
+    <t>2022-12-01T09:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:20:32+00:00</t>
+    <t>2022-12-01T09:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:36:28+00:00</t>
+    <t>2022-12-01T10:00:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:00:58+00:00</t>
+    <t>2022-12-01T10:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:50:29+00:00</t>
+    <t>2022-12-01T10:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:57:09+00:00</t>
+    <t>2022-12-01T11:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:23:26+00:00</t>
+    <t>2022-12-01T11:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:32:02+00:00</t>
+    <t>2022-12-01T11:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:40:36+00:00</t>
+    <t>2022-12-01T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T11:55:49+00:00</t>
+    <t>2022-12-01T13:09:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:09:32+00:00</t>
+    <t>2022-12-01T13:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:41:09+00:00</t>
+    <t>2022-12-01T13:59:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T13:59:25+00:00</t>
+    <t>2022-12-01T14:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:05:48+00:00</t>
+    <t>2022-12-01T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:38:52+00:00</t>
+    <t>2022-12-01T14:45:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T14:45:46+00:00</t>
+    <t>2022-12-01T15:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:02:19+00:00</t>
+    <t>2022-12-01T15:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:58:18+00:00</t>
+    <t>2022-12-01T17:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-long-covid-post-covid</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-long-covid-post-covid</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:22:13+00:00</t>
+    <t>2022-12-01T17:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Jembi Health Systems</t>
+    <t>OpenHIE</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:41:14+00:00</t>
+    <t>2022-12-01T17:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-long-covid-post-covid</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-long-covid-post-covid</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:51:39+00:00</t>
+    <t>2022-12-01T17:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T17:57:12+00:00</t>
+    <t>2022-12-01T19:12:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:12:42+00:00</t>
+    <t>2022-12-01T19:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:29:16+00:00</t>
+    <t>2022-12-02T05:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T05:56:29+00:00</t>
+    <t>2022-12-02T06:27:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:27:17+00:00</t>
+    <t>2022-12-02T09:31:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:31:17+00:00</t>
+    <t>2022-12-02T11:54:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1053,10 +1053,6 @@
   </si>
   <si>
     <t>authorReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Observation.note.time</t>
@@ -4937,7 +4933,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>89</v>
@@ -5420,7 +5416,7 @@
         <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>332</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>326</v>
@@ -5514,7 +5510,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5540,10 +5536,10 @@
         <v>242</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5594,7 +5590,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5618,7 +5614,7 @@
         <v>132</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5629,7 +5625,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5652,13 +5648,13 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5709,7 +5705,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>89</v>
@@ -5733,7 +5729,7 @@
         <v>132</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -5744,7 +5740,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5770,13 +5766,13 @@
         <v>188</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5805,11 +5801,11 @@
         <v>204</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5826,7 +5822,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5844,24 +5840,24 @@
         <v>80</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5887,16 +5883,16 @@
         <v>188</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -5924,11 +5920,11 @@
         <v>204</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5966,10 +5962,10 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -5980,7 +5976,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6003,16 +5999,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6062,7 +6058,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6080,24 +6076,24 @@
         <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6120,16 +6116,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6179,7 +6175,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6197,24 +6193,24 @@
         <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6237,19 +6233,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>80</v>
@@ -6298,7 +6294,7 @@
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6310,19 +6306,19 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6333,7 +6329,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6448,7 +6444,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6565,11 +6561,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6591,10 +6587,10 @@
         <v>135</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>138</v>
@@ -6649,7 +6645,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6684,7 +6680,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6707,13 +6703,13 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6764,7 +6760,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6773,7 +6769,7 @@
         <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>101</v>
@@ -6785,10 +6781,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6799,7 +6795,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6822,13 +6818,13 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6879,7 +6875,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6888,7 +6884,7 @@
         <v>89</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>101</v>
@@ -6900,10 +6896,10 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -6914,7 +6910,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6940,16 +6936,16 @@
         <v>188</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>80</v>
@@ -6977,11 +6973,11 @@
         <v>113</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6998,7 +6994,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7016,10 +7012,10 @@
         <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>302</v>
@@ -7033,7 +7029,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7059,16 +7055,16 @@
         <v>188</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>80</v>
@@ -7096,11 +7092,11 @@
         <v>204</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7135,10 +7131,10 @@
         <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>302</v>
@@ -7152,7 +7148,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7175,17 +7171,17 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>80</v>
@@ -7234,7 +7230,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7258,7 +7254,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7269,7 +7265,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7295,10 +7291,10 @@
         <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7349,7 +7345,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7370,10 +7366,10 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7384,7 +7380,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7407,16 +7403,16 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7466,7 +7462,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7487,10 +7483,10 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7501,7 +7497,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7524,16 +7520,16 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7583,7 +7579,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7604,10 +7600,10 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7618,7 +7614,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7641,19 +7637,19 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -7702,7 +7698,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7723,10 +7719,10 @@
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7737,7 +7733,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7852,7 +7848,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7969,11 +7965,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7995,10 +7991,10 @@
         <v>135</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>138</v>
@@ -8053,7 +8049,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8088,7 +8084,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8114,13 +8110,13 @@
         <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>202</v>
@@ -8172,7 +8168,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>89</v>
@@ -8190,7 +8186,7 @@
         <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>209</v>
@@ -8207,7 +8203,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8233,13 +8229,13 @@
         <v>272</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>274</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>276</v>
@@ -8291,7 +8287,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8309,7 +8305,7 @@
         <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>279</v>
@@ -8326,7 +8322,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8352,13 +8348,13 @@
         <v>188</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>286</v>
@@ -8410,7 +8406,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8445,7 +8441,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8529,7 +8525,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8564,7 +8560,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8590,16 +8586,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8644,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8669,10 +8665,10 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:26:54+00:00</t>
+    <t>2023-01-11T14:08:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:08:01+00:00</t>
+    <t>2023-01-11T15:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
+++ b/branches/Richard/StructureDefinition-covid19-long-covid-post-covid.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:22:07+00:00</t>
+    <t>2023-01-11T16:26:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
